--- a/2019_dkp/2020_01_07_dkp.xlsx
+++ b/2019_dkp/2020_01_07_dkp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\game\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5893AA-BDBC-468E-AD95-C04E7233C6D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9857636A-3336-4C25-A260-8E4F17F7F585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7455" yWindow="1950" windowWidth="21600" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dkp" sheetId="1" r:id="rId1"/>
@@ -665,10 +665,10 @@
   <dimension ref="B1:P65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D58" sqref="D58"/>
+      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1836,7 +1836,7 @@
         <v>42</v>
       </c>
       <c r="D39" s="5">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="6"/>
@@ -1857,7 +1857,7 @@
       <c r="O39" s="5"/>
       <c r="P39" s="9">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
@@ -2464,7 +2464,7 @@
         <v>71</v>
       </c>
       <c r="D59" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="6"/>
@@ -2485,7 +2485,7 @@
       <c r="O59" s="5"/>
       <c r="P59" s="9">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.2">

--- a/2019_dkp/2020_01_07_dkp.xlsx
+++ b/2019_dkp/2020_01_07_dkp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\game\wow_dkp\2019_dkp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9857636A-3336-4C25-A260-8E4F17F7F585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580494EB-0E5D-417A-B537-3937DADE7CA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10995" yWindow="2430" windowWidth="16200" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dkp" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="74">
   <si>
     <t>MC分数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,6 +257,14 @@
   </si>
   <si>
     <t>糯米饭</t>
+  </si>
+  <si>
+    <t>LR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级牛肉面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -662,13 +670,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:P65"/>
+  <dimension ref="B1:P66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -684,7 +692,7 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1" s="10">
-        <v>43469</v>
+        <v>43472</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -744,10 +752,12 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
       <c r="H4" s="7">
         <f>IF(G4&lt;&gt;"", 1, 0)*H$2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="5"/>
@@ -761,7 +771,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="9">
         <f>IF(D4+H4+I4+M4 &gt; 0, D4+H4+I4+M4, "")</f>
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
@@ -776,10 +786,12 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7">
+        <v>2</v>
+      </c>
       <c r="H5" s="7">
-        <f t="shared" ref="H5:H63" si="1">IF(G5&lt;&gt;"", 1, 0)*H$2</f>
-        <v>0</v>
+        <f t="shared" ref="H5:H64" si="1">IF(G5&lt;&gt;"", 1, 0)*H$2</f>
+        <v>4</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="5"/>
@@ -792,8 +804,8 @@
       <c r="N5" s="8"/>
       <c r="O5" s="5"/>
       <c r="P5" s="9">
-        <f t="shared" ref="P5:P63" si="2">IF(D5+H5+I5+M5 &gt; 0, D5+H5+I5+M5, "")</f>
-        <v>84</v>
+        <f t="shared" ref="P5:P64" si="2">IF(D5+H5+I5+M5 &gt; 0, D5+H5+I5+M5, "")</f>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
@@ -808,10 +820,12 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7">
+        <v>5</v>
+      </c>
       <c r="H6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="5"/>
@@ -825,7 +839,7 @@
       <c r="O6" s="5"/>
       <c r="P6" s="9">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
@@ -840,10 +854,12 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7">
+        <v>7</v>
+      </c>
       <c r="H7" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="5"/>
@@ -857,7 +873,7 @@
       <c r="O7" s="5"/>
       <c r="P7" s="9">
         <f t="shared" si="2"/>
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
@@ -872,10 +888,12 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7">
+        <v>5</v>
+      </c>
       <c r="H8" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="5"/>
@@ -889,7 +907,7 @@
       <c r="O8" s="5"/>
       <c r="P8" s="9">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
@@ -968,24 +986,26 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
       <c r="H11" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7">
-        <f t="shared" ref="M11:M63" si="3">IF(L11&lt;&gt;"",M$2, 0)</f>
+        <f t="shared" ref="M11:M64" si="3">IF(L11&lt;&gt;"",M$2, 0)</f>
         <v>0</v>
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="5"/>
       <c r="P11" s="9">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
@@ -1026,10 +1046,12 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
       <c r="H13" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="5"/>
@@ -1043,7 +1065,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="9">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
@@ -1058,10 +1080,12 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7">
+        <v>3</v>
+      </c>
       <c r="H14" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="5"/>
@@ -1075,7 +1099,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="9">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
@@ -1090,10 +1114,12 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7">
+        <v>4</v>
+      </c>
       <c r="H15" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="5"/>
@@ -1107,7 +1133,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="9">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
@@ -1122,10 +1148,12 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7">
+        <v>2</v>
+      </c>
       <c r="H16" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="5"/>
@@ -1139,7 +1167,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="9">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
@@ -1180,10 +1208,12 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
+      <c r="G18" s="7">
+        <v>1</v>
+      </c>
       <c r="H18" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="5"/>
@@ -1197,7 +1227,7 @@
       <c r="O18" s="5"/>
       <c r="P18" s="9">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
@@ -1212,10 +1242,12 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
+      <c r="G19" s="7">
+        <v>2</v>
+      </c>
       <c r="H19" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="5"/>
@@ -1229,7 +1261,7 @@
       <c r="O19" s="5"/>
       <c r="P19" s="9">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
@@ -1244,10 +1276,12 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7">
+        <v>5</v>
+      </c>
       <c r="H20" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="5"/>
@@ -1261,7 +1295,7 @@
       <c r="O20" s="5"/>
       <c r="P20" s="9">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
@@ -1276,10 +1310,12 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
+      <c r="G21" s="7">
+        <v>3</v>
+      </c>
       <c r="H21" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="5"/>
@@ -1293,7 +1329,7 @@
       <c r="O21" s="5"/>
       <c r="P21" s="9">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
@@ -1334,10 +1370,12 @@
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
+      <c r="G23" s="7">
+        <v>4</v>
+      </c>
       <c r="H23" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="5"/>
@@ -1351,7 +1389,7 @@
       <c r="O23" s="5"/>
       <c r="P23" s="9">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
@@ -1398,10 +1436,12 @@
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
+      <c r="G25" s="7">
+        <v>4</v>
+      </c>
       <c r="H25" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="5"/>
@@ -1415,7 +1455,7 @@
       <c r="O25" s="5"/>
       <c r="P25" s="9">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
@@ -1462,10 +1502,12 @@
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="7"/>
+      <c r="G27" s="7">
+        <v>6</v>
+      </c>
       <c r="H27" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="5"/>
@@ -1479,7 +1521,7 @@
       <c r="O27" s="5"/>
       <c r="P27" s="9">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
@@ -1494,10 +1536,12 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
+      <c r="G28" s="7">
+        <v>6</v>
+      </c>
       <c r="H28" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="5"/>
@@ -1511,7 +1555,7 @@
       <c r="O28" s="5"/>
       <c r="P28" s="9">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
@@ -1590,10 +1634,12 @@
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="7"/>
+      <c r="G31" s="7">
+        <v>6</v>
+      </c>
       <c r="H31" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="5"/>
@@ -1607,7 +1653,7 @@
       <c r="O31" s="5"/>
       <c r="P31" s="9">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
@@ -1622,10 +1668,12 @@
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="7"/>
+      <c r="G32" s="7">
+        <v>4</v>
+      </c>
       <c r="H32" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="5"/>
@@ -1639,7 +1687,7 @@
       <c r="O32" s="5"/>
       <c r="P32" s="9">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
@@ -1686,10 +1734,12 @@
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="7"/>
+      <c r="G34" s="7">
+        <v>6</v>
+      </c>
       <c r="H34" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="5"/>
@@ -1703,7 +1753,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="9">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
@@ -1840,10 +1890,12 @@
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="7"/>
+      <c r="G39" s="7">
+        <v>1</v>
+      </c>
       <c r="H39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="5"/>
@@ -1857,7 +1909,7 @@
       <c r="O39" s="5"/>
       <c r="P39" s="9">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
@@ -1872,10 +1924,12 @@
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="7"/>
+      <c r="G40" s="7">
+        <v>4</v>
+      </c>
       <c r="H40" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="5"/>
@@ -1889,7 +1943,7 @@
       <c r="O40" s="5"/>
       <c r="P40" s="9">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
@@ -1936,10 +1990,12 @@
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="7"/>
+      <c r="G42" s="7">
+        <v>2</v>
+      </c>
       <c r="H42" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="5"/>
@@ -1953,7 +2009,7 @@
       <c r="O42" s="5"/>
       <c r="P42" s="9">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
@@ -1968,10 +2024,12 @@
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="7"/>
+      <c r="G43" s="7">
+        <v>3</v>
+      </c>
       <c r="H43" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="5"/>
@@ -1985,7 +2043,7 @@
       <c r="O43" s="5"/>
       <c r="P43" s="9">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
@@ -2000,10 +2058,12 @@
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="6"/>
-      <c r="G44" s="7"/>
+      <c r="G44" s="7">
+        <v>3</v>
+      </c>
       <c r="H44" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="5"/>
@@ -2017,7 +2077,7 @@
       <c r="O44" s="5"/>
       <c r="P44" s="9">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
@@ -2032,10 +2092,12 @@
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="7"/>
+      <c r="G45" s="7">
+        <v>6</v>
+      </c>
       <c r="H45" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="5"/>
@@ -2049,7 +2111,7 @@
       <c r="O45" s="5"/>
       <c r="P45" s="9">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
@@ -2122,10 +2184,12 @@
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="7"/>
+      <c r="G48" s="7">
+        <v>8</v>
+      </c>
       <c r="H48" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="5"/>
@@ -2139,7 +2203,7 @@
       <c r="O48" s="5"/>
       <c r="P48" s="9">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.2">
@@ -2186,10 +2250,12 @@
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="7"/>
+      <c r="G50" s="7">
+        <v>8</v>
+      </c>
       <c r="H50" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="5"/>
@@ -2203,19 +2269,27 @@
       <c r="O50" s="5"/>
       <c r="P50" s="9">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
+      <c r="B51" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0</v>
+      </c>
       <c r="E51" s="5"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="7"/>
+      <c r="G51" s="7">
+        <v>8</v>
+      </c>
       <c r="H51" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="5"/>
@@ -2227,21 +2301,15 @@
       </c>
       <c r="N51" s="8"/>
       <c r="O51" s="5"/>
-      <c r="P51" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="P51" s="9">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B52" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D52" s="5">
-        <v>42</v>
-      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="6"/>
       <c r="G52" s="7"/>
@@ -2259,9 +2327,9 @@
       </c>
       <c r="N52" s="8"/>
       <c r="O52" s="5"/>
-      <c r="P52" s="9">
-        <f t="shared" si="2"/>
-        <v>42</v>
+      <c r="P52" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.2">
@@ -2269,17 +2337,19 @@
         <v>54</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D53" s="5">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="7"/>
+      <c r="G53" s="7">
+        <v>7</v>
+      </c>
       <c r="H53" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="5"/>
@@ -2293,7 +2363,7 @@
       <c r="O53" s="5"/>
       <c r="P53" s="9">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.2">
@@ -2301,17 +2371,19 @@
         <v>54</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D54" s="5">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="7"/>
+      <c r="G54" s="7">
+        <v>5</v>
+      </c>
       <c r="H54" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="5"/>
@@ -2325,7 +2397,7 @@
       <c r="O54" s="5"/>
       <c r="P54" s="9">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.2">
@@ -2333,17 +2405,19 @@
         <v>54</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D55" s="5">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="7"/>
+      <c r="G55" s="7">
+        <v>7</v>
+      </c>
       <c r="H55" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="5"/>
@@ -2357,7 +2431,7 @@
       <c r="O55" s="5"/>
       <c r="P55" s="9">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.2">
@@ -2365,17 +2439,19 @@
         <v>54</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D56" s="5">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="7"/>
+      <c r="G56" s="7">
+        <v>8</v>
+      </c>
       <c r="H56" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="5"/>
@@ -2389,7 +2465,7 @@
       <c r="O56" s="5"/>
       <c r="P56" s="9">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.2">
@@ -2397,17 +2473,19 @@
         <v>54</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D57" s="5">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="7"/>
+      <c r="G57" s="7">
+        <v>5</v>
+      </c>
       <c r="H57" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="5"/>
@@ -2421,7 +2499,7 @@
       <c r="O57" s="5"/>
       <c r="P57" s="9">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.2">
@@ -2429,17 +2507,19 @@
         <v>54</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D58" s="5">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="6"/>
-      <c r="G58" s="7"/>
+      <c r="G58" s="7">
+        <v>7</v>
+      </c>
       <c r="H58" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="5"/>
@@ -2453,7 +2533,7 @@
       <c r="O58" s="5"/>
       <c r="P58" s="9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.2">
@@ -2461,7 +2541,7 @@
         <v>54</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D59" s="5">
         <v>2</v>
@@ -2489,9 +2569,15 @@
       </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
+      <c r="B60" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="5">
+        <v>2</v>
+      </c>
       <c r="E60" s="5"/>
       <c r="F60" s="6"/>
       <c r="G60" s="7"/>
@@ -2509,21 +2595,15 @@
       </c>
       <c r="N60" s="8"/>
       <c r="O60" s="5"/>
-      <c r="P60" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="P60" s="9">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B61" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D61" s="5">
-        <v>6</v>
-      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="6"/>
       <c r="G61" s="7"/>
@@ -2541,9 +2621,9 @@
       </c>
       <c r="N61" s="8"/>
       <c r="O61" s="5"/>
-      <c r="P61" s="9">
-        <f t="shared" si="2"/>
-        <v>6</v>
+      <c r="P61" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.2">
@@ -2551,10 +2631,10 @@
         <v>60</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D62" s="5">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="6"/>
@@ -2575,7 +2655,7 @@
       <c r="O62" s="5"/>
       <c r="P62" s="9">
         <f t="shared" si="2"/>
-        <v>76</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.2">
@@ -2583,17 +2663,19 @@
         <v>60</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D63" s="5">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="7"/>
+      <c r="G63" s="7">
+        <v>7</v>
+      </c>
       <c r="H63" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="5"/>
@@ -2607,7 +2689,7 @@
       <c r="O63" s="5"/>
       <c r="P63" s="9">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.2">
@@ -2615,31 +2697,33 @@
         <v>60</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D64" s="5">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="7"/>
+      <c r="G64" s="7">
+        <v>8</v>
+      </c>
       <c r="H64" s="7">
-        <f t="shared" ref="H64" si="4">IF(G64&lt;&gt;"", 1, 0)*H$2</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
       <c r="L64" s="7"/>
       <c r="M64" s="7">
-        <f t="shared" ref="M64" si="5">IF(L64&lt;&gt;"",M$2, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N64" s="8"/>
       <c r="O64" s="5"/>
       <c r="P64" s="9">
-        <f t="shared" ref="P64" si="6">IF(D64+H64+I64+M64 &gt; 0, D64+H64+I64+M64, "")</f>
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.2">
@@ -2647,31 +2731,67 @@
         <v>60</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D65" s="5">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="7"/>
+      <c r="G65" s="7">
+        <v>3</v>
+      </c>
       <c r="H65" s="7">
-        <f t="shared" ref="H65" si="7">IF(G65&lt;&gt;"", 1, 0)*H$2</f>
-        <v>0</v>
+        <f t="shared" ref="H65" si="4">IF(G65&lt;&gt;"", 1, 0)*H$2</f>
+        <v>4</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
       <c r="L65" s="7"/>
       <c r="M65" s="7">
-        <f t="shared" ref="M65" si="8">IF(L65&lt;&gt;"",M$2, 0)</f>
+        <f t="shared" ref="M65" si="5">IF(L65&lt;&gt;"",M$2, 0)</f>
         <v>0</v>
       </c>
       <c r="N65" s="8"/>
       <c r="O65" s="5"/>
       <c r="P65" s="9">
-        <f t="shared" ref="P65" si="9">IF(D65+H65+I65+M65 &gt; 0, D65+H65+I65+M65, "")</f>
+        <f t="shared" ref="P65" si="6">IF(D65+H65+I65+M65 &gt; 0, D65+H65+I65+M65, "")</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B66" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D66" s="5">
         <v>8</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="7">
+        <v>2</v>
+      </c>
+      <c r="H66" s="7">
+        <f t="shared" ref="H66" si="7">IF(G66&lt;&gt;"", 1, 0)*H$2</f>
+        <v>4</v>
+      </c>
+      <c r="I66" s="8"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7">
+        <f t="shared" ref="M66" si="8">IF(L66&lt;&gt;"",M$2, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N66" s="8"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="9">
+        <f t="shared" ref="P66" si="9">IF(D66+H66+I66+M66 &gt; 0, D66+H66+I66+M66, "")</f>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2679,17 +2799,17 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="L66:M1048576 F66:H1048576 L1:M63 F1:H63">
+  <conditionalFormatting sqref="L67:M1048576 F67:H1048576 F1:H64 L1:M64">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F64:H64 L64:M64">
+  <conditionalFormatting sqref="F65:H65 L65:M65">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F65:H65 L65:M65">
+  <conditionalFormatting sqref="F66:H66 L66:M66">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/2019_dkp/2020_01_07_dkp.xlsx
+++ b/2019_dkp/2020_01_07_dkp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580494EB-0E5D-417A-B537-3937DADE7CA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD03E97-0546-4C38-8459-745757480382}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10995" yWindow="2430" windowWidth="16200" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11910" yWindow="2745" windowWidth="16200" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dkp" sheetId="1" r:id="rId1"/>
@@ -676,7 +676,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -850,7 +850,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="5">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
@@ -873,7 +873,7 @@
       <c r="O7" s="5"/>
       <c r="P7" s="9">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
